--- a/data/output/FV2504_FV2410/ORDERS/17009.xlsx
+++ b/data/output/FV2504_FV2410/ORDERS/17009.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1679" uniqueCount="201">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1700" uniqueCount="201">
+  <si>
+    <t>Segmentname_FV2410</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2410</t>
+  </si>
+  <si>
+    <t>Segment_FV2410</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2410</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2410</t>
+  </si>
+  <si>
+    <t>Code_FV2410</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2410</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2410</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2504</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2504</t>
+  </si>
+  <si>
+    <t>Segment_FV2504</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2504</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2504</t>
+  </si>
+  <si>
+    <t>Code_FV2504</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2504</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2504</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2504</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2504</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -709,6 +709,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U78" totalsRowShown="0">
+  <autoFilter ref="A1:U78"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2410"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2410"/>
+    <tableColumn id="3" name="Segment_FV2410"/>
+    <tableColumn id="4" name="Datenelement_FV2410"/>
+    <tableColumn id="5" name="Segment ID_FV2410"/>
+    <tableColumn id="6" name="Code_FV2410"/>
+    <tableColumn id="7" name="Qualifier_FV2410"/>
+    <tableColumn id="8" name="Beschreibung_FV2410"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2410"/>
+    <tableColumn id="10" name="Bedingung_FV2410"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2504"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2504"/>
+    <tableColumn id="14" name="Segment_FV2504"/>
+    <tableColumn id="15" name="Datenelement_FV2504"/>
+    <tableColumn id="16" name="Segment ID_FV2504"/>
+    <tableColumn id="17" name="Code_FV2504"/>
+    <tableColumn id="18" name="Qualifier_FV2504"/>
+    <tableColumn id="19" name="Beschreibung_FV2504"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2504"/>
+    <tableColumn id="21" name="Bedingung_FV2504"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -998,7 +1028,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -4717,5 +4750,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2504_FV2410/ORDERS/17009.xlsx
+++ b/data/output/FV2504_FV2410/ORDERS/17009.xlsx
@@ -1400,7 +1400,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -1764,7 +1764,7 @@
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="2"/>
@@ -1910,7 +1910,7 @@
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="4"/>
-      <c r="M12" s="2" t="s">
+      <c r="M12" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N12" s="2"/>
@@ -2114,7 +2114,7 @@
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="2" t="s">
+      <c r="M16" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N16" s="2"/>
@@ -2318,7 +2318,7 @@
       </c>
       <c r="K20" s="2"/>
       <c r="L20" s="4"/>
-      <c r="M20" s="2" t="s">
+      <c r="M20" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N20" s="2"/>
@@ -2462,7 +2462,7 @@
       </c>
       <c r="K23" s="2"/>
       <c r="L23" s="4"/>
-      <c r="M23" s="2" t="s">
+      <c r="M23" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N23" s="2" t="s">
@@ -2668,7 +2668,7 @@
       </c>
       <c r="K27" s="2"/>
       <c r="L27" s="4"/>
-      <c r="M27" s="2" t="s">
+      <c r="M27" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N27" s="2" t="s">
@@ -3034,7 +3034,7 @@
       </c>
       <c r="K34" s="2"/>
       <c r="L34" s="4"/>
-      <c r="M34" s="2" t="s">
+      <c r="M34" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N34" s="2" t="s">
@@ -3208,52 +3208,52 @@
       <c r="V37" s="5"/>
     </row>
     <row r="38" spans="1:22">
-      <c r="A38" s="5" t="s">
+      <c r="A38" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="B38" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C38" s="5" t="s">
+      <c r="C38" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D38" s="5" t="s">
+      <c r="D38" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E38" s="5"/>
+      <c r="E38" s="2"/>
       <c r="F38" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="G38" s="5"/>
-      <c r="H38" s="5"/>
-      <c r="I38" s="5"/>
-      <c r="J38" s="5" t="s">
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="K38" s="5"/>
+      <c r="K38" s="2"/>
       <c r="L38" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="M38" s="5" t="s">
+      <c r="M38" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="N38" s="5" t="s">
+      <c r="N38" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="O38" s="5" t="s">
+      <c r="O38" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="P38" s="5"/>
+      <c r="P38" s="2"/>
       <c r="Q38" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="R38" s="5"/>
-      <c r="S38" s="5"/>
-      <c r="T38" s="5"/>
-      <c r="U38" s="5" t="s">
+      <c r="R38" s="2"/>
+      <c r="S38" s="2"/>
+      <c r="T38" s="2"/>
+      <c r="U38" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="V38" s="5"/>
+      <c r="V38" s="2"/>
     </row>
     <row r="39" spans="1:22">
       <c r="A39" s="5" t="s">
@@ -3610,7 +3610,7 @@
       </c>
       <c r="K45" s="2"/>
       <c r="L45" s="4"/>
-      <c r="M45" s="2" t="s">
+      <c r="M45" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N45" s="2" t="s">
@@ -3972,7 +3972,7 @@
       </c>
       <c r="K52" s="2"/>
       <c r="L52" s="4"/>
-      <c r="M52" s="2" t="s">
+      <c r="M52" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N52" s="2" t="s">
@@ -4272,7 +4272,7 @@
         <v>188</v>
       </c>
       <c r="L58" s="4"/>
-      <c r="M58" s="2" t="s">
+      <c r="M58" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N58" s="2" t="s">
@@ -4420,7 +4420,7 @@
       </c>
       <c r="K61" s="2"/>
       <c r="L61" s="4"/>
-      <c r="M61" s="2" t="s">
+      <c r="M61" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N61" s="2" t="s">
@@ -4896,7 +4896,7 @@
         <v>191</v>
       </c>
       <c r="L70" s="4"/>
-      <c r="M70" s="2" t="s">
+      <c r="M70" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N70" s="2" t="s">
@@ -5080,48 +5080,48 @@
       <c r="V73" s="5"/>
     </row>
     <row r="74" spans="1:22">
-      <c r="A74" s="5" t="s">
+      <c r="A74" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="B74" s="5" t="s">
+      <c r="B74" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C74" s="5"/>
-      <c r="D74" s="5" t="s">
+      <c r="C74" s="2"/>
+      <c r="D74" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E74" s="5"/>
+      <c r="E74" s="2"/>
       <c r="F74" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="G74" s="5"/>
-      <c r="H74" s="5"/>
-      <c r="I74" s="5"/>
-      <c r="J74" s="5" t="s">
+      <c r="G74" s="2"/>
+      <c r="H74" s="2"/>
+      <c r="I74" s="2"/>
+      <c r="J74" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="K74" s="5"/>
+      <c r="K74" s="2"/>
       <c r="L74" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="M74" s="5" t="s">
+      <c r="M74" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="N74" s="5"/>
-      <c r="O74" s="5" t="s">
+      <c r="N74" s="2"/>
+      <c r="O74" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="P74" s="5"/>
+      <c r="P74" s="2"/>
       <c r="Q74" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="R74" s="5"/>
-      <c r="S74" s="5"/>
-      <c r="T74" s="5"/>
-      <c r="U74" s="5" t="s">
+      <c r="R74" s="2"/>
+      <c r="S74" s="2"/>
+      <c r="T74" s="2"/>
+      <c r="U74" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="V74" s="5"/>
+      <c r="V74" s="2"/>
     </row>
     <row r="75" spans="1:22">
       <c r="A75" s="5" t="s">
@@ -5176,48 +5176,48 @@
       <c r="V75" s="5"/>
     </row>
     <row r="76" spans="1:22">
-      <c r="A76" s="5" t="s">
+      <c r="A76" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="B76" s="5" t="s">
+      <c r="B76" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C76" s="5"/>
-      <c r="D76" s="5" t="s">
+      <c r="C76" s="2"/>
+      <c r="D76" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E76" s="5"/>
+      <c r="E76" s="2"/>
       <c r="F76" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="G76" s="5"/>
-      <c r="H76" s="5"/>
-      <c r="I76" s="5"/>
-      <c r="J76" s="5" t="s">
+      <c r="G76" s="2"/>
+      <c r="H76" s="2"/>
+      <c r="I76" s="2"/>
+      <c r="J76" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="K76" s="5"/>
+      <c r="K76" s="2"/>
       <c r="L76" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="M76" s="5" t="s">
+      <c r="M76" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="N76" s="5"/>
-      <c r="O76" s="5" t="s">
+      <c r="N76" s="2"/>
+      <c r="O76" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="P76" s="5"/>
+      <c r="P76" s="2"/>
       <c r="Q76" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="R76" s="5"/>
-      <c r="S76" s="5"/>
-      <c r="T76" s="5"/>
-      <c r="U76" s="5" t="s">
+      <c r="R76" s="2"/>
+      <c r="S76" s="2"/>
+      <c r="T76" s="2"/>
+      <c r="U76" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="V76" s="5"/>
+      <c r="V76" s="2"/>
     </row>
     <row r="77" spans="1:22">
       <c r="A77" s="5" t="s">
